--- a/src/tasks/day2Tasks/InfoSection.xlsx
+++ b/src/tasks/day2Tasks/InfoSection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaumar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F8CD72-3BF9-A343-AA1A-FCC5EC422BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C0B6BD-8511-044C-8EE2-CD26BDF83368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="800" windowWidth="32800" windowHeight="16940" xr2:uid="{37331F52-ADB8-AA40-AA3A-299D57D4CD07}"/>
+    <workbookView xWindow="3400" yWindow="500" windowWidth="30360" windowHeight="16940" xr2:uid="{37331F52-ADB8-AA40-AA3A-299D57D4CD07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -106,27 +106,15 @@
     <t xml:space="preserve">Navigate to INFO Header in the Home page </t>
   </si>
   <si>
-    <t>Click  ABOUT link  under INFO.</t>
-  </si>
-  <si>
-    <t>Verify that ABOUT page loads successfully.</t>
-  </si>
-  <si>
     <t>INFO Section</t>
   </si>
   <si>
     <t>INFO section should have 5 link that redirect to the correct  pages: ABOUT, HELP/FAQ, SUPPORT US, CONTACT and PRESS.</t>
   </si>
   <si>
-    <t xml:space="preserve">Open to INFO Header in the Home page </t>
-  </si>
-  <si>
     <t>Navigate to INFO Section.</t>
   </si>
   <si>
-    <t>Verify that INFO Section  hover over successfully.</t>
-  </si>
-  <si>
     <t xml:space="preserve">User should able to navigate to INFO Section and see the 5 links in that section. </t>
   </si>
   <si>
@@ -224,6 +212,117 @@
   </si>
   <si>
     <t xml:space="preserve">The SUPPORT US link should be present and lead to the SUPPORT US page. </t>
+  </si>
+  <si>
+    <t>Verify that INFO Section is visible after clicking on  the Home Page</t>
+  </si>
+  <si>
+    <t>Verify that INFO Section dropdown menu displays the correct list of available options.</t>
+  </si>
+  <si>
+    <t>Confirm that the  each option in the dropdown menu is visually highlighted when you are navigated to it</t>
+  </si>
+  <si>
+    <t>Ensure that the dropdown menu options can be clicked.</t>
+  </si>
+  <si>
+    <t>Verify that "ABOUT" option under INFO can be clicked by the user.</t>
+  </si>
+  <si>
+    <t>Verify  "curentURL"  and "ABOUT " page loads successfully.</t>
+  </si>
+  <si>
+    <t>Verify the text under the header "What is Movieo?" are present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click to emails under the "Team" Section and verify that it navigate to team member's email </t>
+  </si>
+  <si>
+    <t>Verify that socia media links under "SPREAD THE WORD" are present</t>
+  </si>
+  <si>
+    <t>Click to socia media links and verify that it navigate to them</t>
+  </si>
+  <si>
+    <t>Verify Title or the Social Media page</t>
+  </si>
+  <si>
+    <t>User should see the text under header "What is MovieO?"</t>
+  </si>
+  <si>
+    <t>User should see theteam  member' email to contact him/her.</t>
+  </si>
+  <si>
+    <t>User should see that Facebook and Twitter share links are present under the"Spread the World".</t>
+  </si>
+  <si>
+    <t>User should be able to click "Share on Facebook" and "Share on Twitter"</t>
+  </si>
+  <si>
+    <t>User should be able to see the Social media page.</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO </t>
+  </si>
+  <si>
+    <t>Dropdoun selection</t>
+  </si>
+  <si>
+    <t>Dropdoun functionality</t>
+  </si>
+  <si>
+    <t>"About" clickability</t>
+  </si>
+  <si>
+    <t>"About" page verification</t>
+  </si>
+  <si>
+    <t>Text verification</t>
+  </si>
+  <si>
+    <t>"Social media share" links clicability</t>
+  </si>
+  <si>
+    <t>"Team members' emails"  clicability</t>
+  </si>
+  <si>
+    <t>"Social media share"  links visiability</t>
+  </si>
+  <si>
+    <t>Title  of the page verification</t>
+  </si>
+  <si>
+    <t>User should be able to see  visually highlited link uner the INFO dropdown section while navigate to it</t>
+  </si>
+  <si>
+    <t>User should be able to click each link uner "INFO" section</t>
+  </si>
+  <si>
+    <t>Link is highlited</t>
+  </si>
+  <si>
+    <t>Link is clickable</t>
+  </si>
+  <si>
+    <t>About page is Loaded</t>
+  </si>
+  <si>
+    <t>Text is existed</t>
+  </si>
+  <si>
+    <t>Contact emails are preset</t>
+  </si>
+  <si>
+    <t>Social media Section is present</t>
+  </si>
+  <si>
+    <t>Social media links are clickable</t>
+  </si>
+  <si>
+    <t>Social media page is present</t>
   </si>
 </sst>
 </file>
@@ -276,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +388,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -298,12 +403,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -328,6 +448,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -647,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322C1785-2BB6-554E-8EFF-979E42642B2C}">
   <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,13 +817,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -712,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>13</v>
@@ -721,36 +844,40 @@
     <row r="3" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -767,16 +894,28 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -789,16 +928,28 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -815,7 +966,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -845,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
@@ -853,19 +1004,21 @@
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>13</v>
@@ -873,17 +1026,21 @@
     </row>
     <row r="13" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>13</v>
@@ -891,53 +1048,113 @@
     </row>
     <row r="14" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:34" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="F18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
@@ -960,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
@@ -972,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>13</v>
@@ -986,13 +1203,13 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>13</v>
@@ -1002,15 +1219,15 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>13</v>
@@ -1058,16 +1275,16 @@
     </row>
     <row r="27" spans="1:34" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>17</v>
@@ -1079,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>13</v>
@@ -1115,17 +1332,17 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>13</v>
@@ -1161,15 +1378,15 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>13</v>
@@ -1326,13 +1543,13 @@
     </row>
     <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>25</v>
@@ -1347,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>13</v>
@@ -1357,17 +1574,17 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>13</v>
@@ -1377,15 +1594,15 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>13</v>
@@ -1453,13 +1670,13 @@
     </row>
     <row r="45" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>25</v>
@@ -1474,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>13</v>
@@ -1486,17 +1703,17 @@
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>13</v>
@@ -1508,15 +1725,15 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>13</v>
